--- a/Datos/Estructura para base de datos_peru.xlsx
+++ b/Datos/Estructura para base de datos_peru.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Estructura" sheetId="1" r:id="rId1"/>
@@ -699,8 +699,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:X505"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I517" sqref="I517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
@@ -797,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75">
+    <row r="2" spans="1:24" ht="15.75" hidden="1">
       <c r="A2" s="13" t="s">
         <v>57</v>
       </c>
@@ -871,7 +871,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.75">
+    <row r="3" spans="1:24" ht="15.75" hidden="1">
       <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
@@ -945,7 +945,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75">
+    <row r="4" spans="1:24" ht="15.75" hidden="1">
       <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75">
+    <row r="5" spans="1:24" ht="15.75" hidden="1">
       <c r="A5" s="13" t="s">
         <v>57</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75">
+    <row r="6" spans="1:24" ht="15.75" hidden="1">
       <c r="A6" s="13" t="s">
         <v>57</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75">
+    <row r="7" spans="1:24" ht="15.75" hidden="1">
       <c r="A7" s="13" t="s">
         <v>57</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75">
+    <row r="12" spans="1:24" ht="15.75" hidden="1">
       <c r="A12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75">
+    <row r="13" spans="1:24" ht="15.75" hidden="1">
       <c r="A13" s="13" t="s">
         <v>57</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75">
+    <row r="17" spans="1:24" ht="15.75" hidden="1">
       <c r="A17" s="13" t="s">
         <v>57</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75">
+    <row r="18" spans="1:24" ht="15.75" hidden="1">
       <c r="A18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75">
+    <row r="19" spans="1:24" ht="15.75" hidden="1">
       <c r="A19" s="13" t="s">
         <v>57</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75">
+    <row r="23" spans="1:24" ht="15.75" hidden="1">
       <c r="A23" s="13" t="s">
         <v>57</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75">
+    <row r="24" spans="1:24" ht="15.75" hidden="1">
       <c r="A24" s="13" t="s">
         <v>57</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75">
+    <row r="25" spans="1:24" ht="15.75" hidden="1">
       <c r="A25" s="13" t="s">
         <v>57</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75">
+    <row r="29" spans="1:24" ht="15.75" hidden="1">
       <c r="A29" s="13" t="s">
         <v>57</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75">
+    <row r="30" spans="1:24" ht="15.75" hidden="1">
       <c r="A30" s="13" t="s">
         <v>57</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75">
+    <row r="31" spans="1:24" ht="15.75" hidden="1">
       <c r="A31" s="13" t="s">
         <v>57</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="15.75">
+    <row r="35" spans="1:24" ht="15.75" hidden="1">
       <c r="A35" s="13" t="s">
         <v>57</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75">
+    <row r="36" spans="1:24" ht="15.75" hidden="1">
       <c r="A36" s="13" t="s">
         <v>57</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75">
+    <row r="37" spans="1:24" ht="15.75" hidden="1">
       <c r="A37" s="13" t="s">
         <v>57</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="15.75">
+    <row r="41" spans="1:24" ht="15.75" hidden="1">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="15.75">
+    <row r="42" spans="1:24" ht="15.75" hidden="1">
       <c r="A42" s="13" t="s">
         <v>57</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="15.75">
+    <row r="43" spans="1:24" ht="15.75" hidden="1">
       <c r="A43" s="13" t="s">
         <v>57</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="15.75">
+    <row r="44" spans="1:24" ht="15.75" hidden="1">
       <c r="A44" s="13" t="s">
         <v>57</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="15.75">
+    <row r="45" spans="1:24" ht="15.75" hidden="1">
       <c r="A45" s="13" t="s">
         <v>57</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="15.75">
+    <row r="46" spans="1:24" ht="15.75" hidden="1">
       <c r="A46" s="13" t="s">
         <v>57</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>434.36824523481999</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="15.75">
+    <row r="47" spans="1:24" ht="15.75" hidden="1">
       <c r="A47" s="13" t="s">
         <v>57</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>751.59680638722602</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15.75">
+    <row r="48" spans="1:24" ht="15.75" hidden="1">
       <c r="A48" s="13" t="s">
         <v>57</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>1597.83257108769</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15.75">
+    <row r="49" spans="1:24" ht="15.75" hidden="1">
       <c r="A49" s="13" t="s">
         <v>57</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>964.12644931126704</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="15.75">
+    <row r="50" spans="1:24" ht="15.75" hidden="1">
       <c r="A50" s="13" t="s">
         <v>57</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>738.987442694837</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="15.75">
+    <row r="51" spans="1:24" ht="15.75" hidden="1">
       <c r="A51" s="13" t="s">
         <v>57</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="15.75">
+    <row r="52" spans="1:24" ht="15.75" hidden="1">
       <c r="A52" s="13" t="s">
         <v>57</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="15.75">
+    <row r="53" spans="1:24" ht="15.75" hidden="1">
       <c r="A53" s="13" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75">
+    <row r="54" spans="1:24" ht="15.75" hidden="1">
       <c r="A54" s="13" t="s">
         <v>57</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75">
+    <row r="55" spans="1:24" ht="15.75" hidden="1">
       <c r="A55" s="13" t="s">
         <v>57</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75">
+    <row r="61" spans="1:24" ht="15.75" hidden="1">
       <c r="A61" s="13" t="s">
         <v>57</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>422.25989827465798</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="15.75">
+    <row r="62" spans="1:24" ht="15.75" hidden="1">
       <c r="A62" s="13" t="s">
         <v>57</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>522.74754683318497</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.75">
+    <row r="63" spans="1:24" ht="15.75" hidden="1">
       <c r="A63" s="13" t="s">
         <v>57</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>858.23640520926494</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15.75">
+    <row r="64" spans="1:24" ht="15.75" hidden="1">
       <c r="A64" s="13" t="s">
         <v>57</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>773.81426863292097</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15.75">
+    <row r="65" spans="1:24" ht="15.75" hidden="1">
       <c r="A65" s="13" t="s">
         <v>57</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="15.75">
+    <row r="71" spans="1:24" ht="15.75" hidden="1">
       <c r="A71" s="13" t="s">
         <v>57</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>371.69548797455798</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="15.75">
+    <row r="72" spans="1:24" ht="15.75" hidden="1">
       <c r="A72" s="13" t="s">
         <v>57</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>743.01011302795996</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="15.75">
+    <row r="73" spans="1:24" ht="15.75" hidden="1">
       <c r="A73" s="13" t="s">
         <v>57</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>382.13572854291402</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="15.75">
+    <row r="74" spans="1:24" ht="15.75" hidden="1">
       <c r="A74" s="13" t="s">
         <v>57</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>848.72279097505202</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="15.75">
+    <row r="75" spans="1:24" ht="15.75" hidden="1">
       <c r="A75" s="13" t="s">
         <v>57</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>265.37854889589897</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="15.75">
+    <row r="81" spans="1:24" ht="15.75" hidden="1">
       <c r="A81" s="13" t="s">
         <v>57</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="15.75">
+    <row r="82" spans="1:24" ht="15.75" hidden="1">
       <c r="A82" s="13" t="s">
         <v>57</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="15.75">
+    <row r="83" spans="1:24" ht="15.75" hidden="1">
       <c r="A83" s="13" t="s">
         <v>57</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="15.75">
+    <row r="84" spans="1:24" ht="15.75" hidden="1">
       <c r="A84" s="13" t="s">
         <v>57</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="15.75">
+    <row r="85" spans="1:24" ht="15.75" hidden="1">
       <c r="A85" s="13" t="s">
         <v>57</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="15.75">
+    <row r="91" spans="1:24" ht="15.75" hidden="1">
       <c r="A91" s="13" t="s">
         <v>57</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="15.75">
+    <row r="92" spans="1:24" ht="15.75" hidden="1">
       <c r="A92" s="13" t="s">
         <v>57</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="15.75">
+    <row r="93" spans="1:24" ht="15.75" hidden="1">
       <c r="A93" s="13" t="s">
         <v>57</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.75">
+    <row r="94" spans="1:24" ht="15.75" hidden="1">
       <c r="A94" s="13" t="s">
         <v>57</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.75">
+    <row r="95" spans="1:24" ht="15.75" hidden="1">
       <c r="A95" s="13" t="s">
         <v>57</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="15.75">
+    <row r="101" spans="1:24" ht="15.75" hidden="1">
       <c r="A101" s="13" t="s">
         <v>57</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="15.75">
+    <row r="102" spans="1:24" ht="15.75" hidden="1">
       <c r="A102" s="13" t="s">
         <v>57</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="15.75">
+    <row r="103" spans="1:24" ht="15.75" hidden="1">
       <c r="A103" s="13" t="s">
         <v>57</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="15.75">
+    <row r="104" spans="1:24" ht="15.75" hidden="1">
       <c r="A104" s="13" t="s">
         <v>57</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="15.75">
+    <row r="105" spans="1:24" ht="15.75" hidden="1">
       <c r="A105" s="13" t="s">
         <v>57</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="15.75">
+    <row r="106" spans="1:24" ht="15.75" hidden="1">
       <c r="A106" s="13" t="s">
         <v>57</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="15.75">
+    <row r="107" spans="1:24" ht="15.75" hidden="1">
       <c r="A107" s="13" t="s">
         <v>57</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="15.75">
+    <row r="108" spans="1:24" ht="15.75" hidden="1">
       <c r="A108" s="13" t="s">
         <v>57</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="15.75">
+    <row r="109" spans="1:24" ht="15.75" hidden="1">
       <c r="A109" s="13" t="s">
         <v>57</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="15.75">
+    <row r="110" spans="1:24" ht="15.75" hidden="1">
       <c r="A110" s="13" t="s">
         <v>57</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="15.75">
+    <row r="111" spans="1:24" ht="15.75" hidden="1">
       <c r="A111" s="13" t="s">
         <v>57</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="15.75">
+    <row r="112" spans="1:24" ht="15.75" hidden="1">
       <c r="A112" s="13" t="s">
         <v>57</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="15.75">
+    <row r="113" spans="1:24" ht="15.75" hidden="1">
       <c r="A113" s="13" t="s">
         <v>57</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="15.75">
+    <row r="114" spans="1:24" ht="15.75" hidden="1">
       <c r="A114" s="13" t="s">
         <v>57</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="15.75">
+    <row r="115" spans="1:24" ht="15.75" hidden="1">
       <c r="A115" s="13" t="s">
         <v>57</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="15.75">
+    <row r="116" spans="1:24" ht="15.75" hidden="1">
       <c r="A116" s="13" t="s">
         <v>57</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="15.75">
+    <row r="117" spans="1:24" ht="15.75" hidden="1">
       <c r="A117" s="13" t="s">
         <v>57</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="15.75">
+    <row r="118" spans="1:24" ht="15.75" hidden="1">
       <c r="A118" s="13" t="s">
         <v>57</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="15.75">
+    <row r="119" spans="1:24" ht="15.75" hidden="1">
       <c r="A119" s="13" t="s">
         <v>57</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="15.75">
+    <row r="120" spans="1:24" ht="15.75" hidden="1">
       <c r="A120" s="13" t="s">
         <v>57</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="15.75">
+    <row r="126" spans="1:24" ht="15.75" hidden="1">
       <c r="A126" s="13" t="s">
         <v>44</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="15.75">
+    <row r="127" spans="1:24" ht="15.75" hidden="1">
       <c r="A127" s="13" t="s">
         <v>44</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="15.75">
+    <row r="128" spans="1:24" ht="15.75" hidden="1">
       <c r="A128" s="13" t="s">
         <v>44</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="15.75">
+    <row r="129" spans="1:24" ht="15.75" hidden="1">
       <c r="A129" s="13" t="s">
         <v>44</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="15.75">
+    <row r="130" spans="1:24" ht="15.75" hidden="1">
       <c r="A130" s="13" t="s">
         <v>44</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="15.75">
+    <row r="131" spans="1:24" ht="15.75" hidden="1">
       <c r="A131" s="13" t="s">
         <v>44</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="15.75">
+    <row r="132" spans="1:24" ht="15.75" hidden="1">
       <c r="A132" s="13" t="s">
         <v>44</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="15.75">
+    <row r="133" spans="1:24" ht="15.75" hidden="1">
       <c r="A133" s="13" t="s">
         <v>44</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="15.75">
+    <row r="134" spans="1:24" ht="15.75" hidden="1">
       <c r="A134" s="13" t="s">
         <v>44</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="15.75">
+    <row r="135" spans="1:24" ht="15.75" hidden="1">
       <c r="A135" s="13" t="s">
         <v>44</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="15.75">
+    <row r="136" spans="1:24" ht="15.75" hidden="1">
       <c r="A136" s="13" t="s">
         <v>44</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="15.75">
+    <row r="137" spans="1:24" ht="15.75" hidden="1">
       <c r="A137" s="13" t="s">
         <v>44</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="15.75">
+    <row r="138" spans="1:24" ht="15.75" hidden="1">
       <c r="A138" s="13" t="s">
         <v>44</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="15.75">
+    <row r="139" spans="1:24" ht="15.75" hidden="1">
       <c r="A139" s="13" t="s">
         <v>44</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="15.75">
+    <row r="140" spans="1:24" ht="15.75" hidden="1">
       <c r="A140" s="13" t="s">
         <v>44</v>
       </c>
@@ -11075,7 +11075,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="15.75">
+    <row r="141" spans="1:24" ht="15.75" hidden="1">
       <c r="A141" s="13" t="s">
         <v>44</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="15.75">
+    <row r="142" spans="1:24" ht="15.75" hidden="1">
       <c r="A142" s="13" t="s">
         <v>44</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="15.75">
+    <row r="143" spans="1:24" ht="15.75" hidden="1">
       <c r="A143" s="13" t="s">
         <v>44</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="15.75">
+    <row r="144" spans="1:24" ht="15.75" hidden="1">
       <c r="A144" s="13" t="s">
         <v>44</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="15.75">
+    <row r="145" spans="1:24" ht="15.75" hidden="1">
       <c r="A145" s="13" t="s">
         <v>44</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="15.75">
+    <row r="146" spans="1:24" ht="15.75" hidden="1">
       <c r="A146" s="13" t="s">
         <v>44</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="15.75">
+    <row r="147" spans="1:24" ht="15.75" hidden="1">
       <c r="A147" s="13" t="s">
         <v>44</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="15.75">
+    <row r="148" spans="1:24" ht="15.75" hidden="1">
       <c r="A148" s="13" t="s">
         <v>44</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="15.75">
+    <row r="149" spans="1:24" ht="15.75" hidden="1">
       <c r="A149" s="13" t="s">
         <v>44</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="15.75">
+    <row r="150" spans="1:24" ht="15.75" hidden="1">
       <c r="A150" s="13" t="s">
         <v>44</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="15.75">
+    <row r="151" spans="1:24" ht="15.75" hidden="1">
       <c r="A151" s="13" t="s">
         <v>44</v>
       </c>
@@ -11889,7 +11889,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="15.75">
+    <row r="152" spans="1:24" ht="15.75" hidden="1">
       <c r="A152" s="13" t="s">
         <v>44</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="15.75">
+    <row r="153" spans="1:24" ht="15.75" hidden="1">
       <c r="A153" s="13" t="s">
         <v>44</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="15.75">
+    <row r="154" spans="1:24" ht="15.75" hidden="1">
       <c r="A154" s="13" t="s">
         <v>44</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="15.75">
+    <row r="155" spans="1:24" ht="15.75" hidden="1">
       <c r="A155" s="13" t="s">
         <v>44</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="15.75">
+    <row r="156" spans="1:24" ht="15.75" hidden="1">
       <c r="A156" s="13" t="s">
         <v>44</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="15.75">
+    <row r="157" spans="1:24" ht="15.75" hidden="1">
       <c r="A157" s="13" t="s">
         <v>44</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="15.75">
+    <row r="158" spans="1:24" ht="15.75" hidden="1">
       <c r="A158" s="13" t="s">
         <v>44</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="15.75">
+    <row r="159" spans="1:24" ht="15.75" hidden="1">
       <c r="A159" s="13" t="s">
         <v>44</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="15.75">
+    <row r="160" spans="1:24" ht="15.75" hidden="1">
       <c r="A160" s="13" t="s">
         <v>44</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="15.75">
+    <row r="161" spans="1:24" ht="15.75" hidden="1">
       <c r="A161" s="13" t="s">
         <v>44</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="15.75">
+    <row r="162" spans="1:24" ht="15.75" hidden="1">
       <c r="A162" s="13" t="s">
         <v>44</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="15.75">
+    <row r="163" spans="1:24" ht="15.75" hidden="1">
       <c r="A163" s="13" t="s">
         <v>44</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="15.75">
+    <row r="164" spans="1:24" ht="15.75" hidden="1">
       <c r="A164" s="13" t="s">
         <v>44</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="15.75">
+    <row r="165" spans="1:24" ht="15.75" hidden="1">
       <c r="A165" s="13" t="s">
         <v>44</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="15.75">
+    <row r="166" spans="1:24" ht="15.75" hidden="1">
       <c r="A166" s="13" t="s">
         <v>44</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="15.75">
+    <row r="167" spans="1:24" ht="15.75" hidden="1">
       <c r="A167" s="13" t="s">
         <v>44</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="15.75">
+    <row r="168" spans="1:24" ht="15.75" hidden="1">
       <c r="A168" s="13" t="s">
         <v>44</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="15.75">
+    <row r="169" spans="1:24" ht="15.75" hidden="1">
       <c r="A169" s="13" t="s">
         <v>44</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="15.75">
+    <row r="170" spans="1:24" ht="15.75" hidden="1">
       <c r="A170" s="13" t="s">
         <v>44</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="15.75">
+    <row r="171" spans="1:24" ht="15.75" hidden="1">
       <c r="A171" s="13" t="s">
         <v>44</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="15.75">
+    <row r="172" spans="1:24" ht="15.75" hidden="1">
       <c r="A172" s="13" t="s">
         <v>44</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="15.75">
+    <row r="182" spans="1:24" ht="15.75" hidden="1">
       <c r="A182" s="13" t="s">
         <v>44</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="15.75">
+    <row r="183" spans="1:24" ht="15.75" hidden="1">
       <c r="A183" s="13" t="s">
         <v>44</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="15.75">
+    <row r="184" spans="1:24" ht="15.75" hidden="1">
       <c r="A184" s="13" t="s">
         <v>44</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15.75">
+    <row r="185" spans="1:24" ht="15.75" hidden="1">
       <c r="A185" s="13" t="s">
         <v>44</v>
       </c>
@@ -14405,7 +14405,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="15.75">
+    <row r="186" spans="1:24" ht="15.75" hidden="1">
       <c r="A186" s="13" t="s">
         <v>44</v>
       </c>
@@ -14479,7 +14479,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="15.75">
+    <row r="187" spans="1:24" ht="15.75" hidden="1">
       <c r="A187" s="13" t="s">
         <v>44</v>
       </c>
@@ -14553,7 +14553,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="15.75">
+    <row r="188" spans="1:24" ht="15.75" hidden="1">
       <c r="A188" s="13" t="s">
         <v>44</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="15.75">
+    <row r="189" spans="1:24" ht="15.75" hidden="1">
       <c r="A189" s="13" t="s">
         <v>44</v>
       </c>
@@ -15293,7 +15293,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="15.75">
+    <row r="198" spans="1:24" ht="15.75" hidden="1">
       <c r="A198" s="13" t="s">
         <v>44</v>
       </c>
@@ -15367,7 +15367,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="15.75">
+    <row r="199" spans="1:24" ht="15.75" hidden="1">
       <c r="A199" s="13" t="s">
         <v>44</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="15.75">
+    <row r="200" spans="1:24" ht="15.75" hidden="1">
       <c r="A200" s="13" t="s">
         <v>44</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="15.75">
+    <row r="201" spans="1:24" ht="15.75" hidden="1">
       <c r="A201" s="13" t="s">
         <v>44</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="15.75">
+    <row r="202" spans="1:24" ht="15.75" hidden="1">
       <c r="A202" s="13" t="s">
         <v>44</v>
       </c>
@@ -15663,7 +15663,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="15.75">
+    <row r="203" spans="1:24" ht="15.75" hidden="1">
       <c r="A203" s="13" t="s">
         <v>44</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="15.75">
+    <row r="204" spans="1:24" ht="15.75" hidden="1">
       <c r="A204" s="13" t="s">
         <v>44</v>
       </c>
@@ -15811,7 +15811,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="15.75">
+    <row r="205" spans="1:24" ht="15.75" hidden="1">
       <c r="A205" s="13" t="s">
         <v>44</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="15.75">
+    <row r="217" spans="1:24" ht="15.75" hidden="1">
       <c r="A217" s="13" t="s">
         <v>44</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="15.75">
+    <row r="218" spans="1:24" ht="15.75" hidden="1">
       <c r="A218" s="13" t="s">
         <v>44</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="15.75">
+    <row r="219" spans="1:24" ht="15.75" hidden="1">
       <c r="A219" s="13" t="s">
         <v>44</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="15.75">
+    <row r="220" spans="1:24" ht="15.75" hidden="1">
       <c r="A220" s="13" t="s">
         <v>44</v>
       </c>
@@ -16995,7 +16995,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="15.75">
+    <row r="221" spans="1:24" ht="15.75" hidden="1">
       <c r="A221" s="13" t="s">
         <v>44</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="15.75">
+    <row r="222" spans="1:24" ht="15.75" hidden="1">
       <c r="A222" s="13" t="s">
         <v>44</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="15.75">
+    <row r="223" spans="1:24" ht="15.75" hidden="1">
       <c r="A223" s="13" t="s">
         <v>44</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="15.75">
+    <row r="224" spans="1:24" ht="15.75" hidden="1">
       <c r="A224" s="13" t="s">
         <v>44</v>
       </c>
@@ -18105,7 +18105,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="15.75">
+    <row r="236" spans="1:24" ht="15.75" hidden="1">
       <c r="A236" s="13" t="s">
         <v>44</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="15.75">
+    <row r="237" spans="1:24" ht="15.75" hidden="1">
       <c r="A237" s="13" t="s">
         <v>44</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="15.75">
+    <row r="238" spans="1:24" ht="15.75" hidden="1">
       <c r="A238" s="13" t="s">
         <v>44</v>
       </c>
@@ -18327,7 +18327,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="15.75">
+    <row r="239" spans="1:24" ht="15.75" hidden="1">
       <c r="A239" s="13" t="s">
         <v>44</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="15.75">
+    <row r="240" spans="1:24" ht="15.75" hidden="1">
       <c r="A240" s="13" t="s">
         <v>44</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="15.75">
+    <row r="241" spans="1:24" ht="15.75" hidden="1">
       <c r="A241" s="13" t="s">
         <v>44</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="15.75">
+    <row r="242" spans="1:24" ht="15.75" hidden="1">
       <c r="A242" s="13" t="s">
         <v>44</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="15.75">
+    <row r="243" spans="1:24" ht="15.75" hidden="1">
       <c r="A243" s="13" t="s">
         <v>44</v>
       </c>
@@ -18697,7 +18697,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="15.75">
+    <row r="244" spans="1:24" ht="15.75" hidden="1">
       <c r="A244" s="13" t="s">
         <v>44</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="15.75">
+    <row r="245" spans="1:24" ht="15.75" hidden="1">
       <c r="A245" s="13" t="s">
         <v>44</v>
       </c>
@@ -19659,7 +19659,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="15.75">
+    <row r="257" spans="1:24" ht="15.75" hidden="1">
       <c r="A257" s="13" t="s">
         <v>44</v>
       </c>
@@ -19733,7 +19733,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="15.75">
+    <row r="258" spans="1:24" ht="15.75" hidden="1">
       <c r="A258" s="13" t="s">
         <v>44</v>
       </c>
@@ -19807,7 +19807,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="15.75">
+    <row r="259" spans="1:24" ht="15.75" hidden="1">
       <c r="A259" s="13" t="s">
         <v>44</v>
       </c>
@@ -19881,7 +19881,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="15.75">
+    <row r="260" spans="1:24" ht="15.75" hidden="1">
       <c r="A260" s="13" t="s">
         <v>44</v>
       </c>
@@ -19955,7 +19955,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="15.75">
+    <row r="261" spans="1:24" ht="15.75" hidden="1">
       <c r="A261" s="13" t="s">
         <v>44</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="15.75">
+    <row r="262" spans="1:24" ht="15.75" hidden="1">
       <c r="A262" s="13" t="s">
         <v>44</v>
       </c>
@@ -20103,7 +20103,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="15.75">
+    <row r="263" spans="1:24" ht="15.75" hidden="1">
       <c r="A263" s="13" t="s">
         <v>44</v>
       </c>
@@ -20177,7 +20177,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="15.75">
+    <row r="264" spans="1:24" ht="15.75" hidden="1">
       <c r="A264" s="13" t="s">
         <v>44</v>
       </c>
@@ -20547,7 +20547,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="15.75">
+    <row r="269" spans="1:24" ht="15.75" hidden="1">
       <c r="A269" s="13" t="s">
         <v>44</v>
       </c>
@@ -20621,7 +20621,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="15.75">
+    <row r="270" spans="1:24" ht="15.75" hidden="1">
       <c r="A270" s="13" t="s">
         <v>44</v>
       </c>
@@ -20695,7 +20695,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="15.75">
+    <row r="271" spans="1:24" ht="15.75" hidden="1">
       <c r="A271" s="13" t="s">
         <v>44</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="15.75">
+    <row r="272" spans="1:24" ht="15.75" hidden="1">
       <c r="A272" s="13" t="s">
         <v>44</v>
       </c>
@@ -20843,7 +20843,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="15.75">
+    <row r="273" spans="1:24" ht="15.75" hidden="1">
       <c r="A273" s="13" t="s">
         <v>44</v>
       </c>
@@ -20917,7 +20917,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="15.75">
+    <row r="274" spans="1:24" ht="15.75" hidden="1">
       <c r="A274" s="13" t="s">
         <v>44</v>
       </c>
@@ -20991,7 +20991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="15.75">
+    <row r="275" spans="1:24" ht="15.75" hidden="1">
       <c r="A275" s="13" t="s">
         <v>44</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="15.75">
+    <row r="276" spans="1:24" ht="15.75" hidden="1">
       <c r="A276" s="13" t="s">
         <v>44</v>
       </c>
@@ -21139,7 +21139,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="15.75">
+    <row r="277" spans="1:24" ht="15.75" hidden="1">
       <c r="A277" s="13" t="s">
         <v>44</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="15.75">
+    <row r="278" spans="1:24" ht="15.75" hidden="1">
       <c r="A278" s="13" t="s">
         <v>44</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="15.75">
+    <row r="279" spans="1:24" ht="15.75" hidden="1">
       <c r="A279" s="13" t="s">
         <v>44</v>
       </c>
@@ -21361,7 +21361,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="15.75">
+    <row r="280" spans="1:24" ht="15.75" hidden="1">
       <c r="A280" s="13" t="s">
         <v>44</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="15.75">
+    <row r="281" spans="1:24" ht="15.75" hidden="1">
       <c r="A281" s="13" t="s">
         <v>44</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="15.75">
+    <row r="282" spans="1:24" ht="15.75" hidden="1">
       <c r="A282" s="13" t="s">
         <v>44</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="15.75">
+    <row r="283" spans="1:24" ht="15.75" hidden="1">
       <c r="A283" s="13" t="s">
         <v>44</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="15.75">
+    <row r="284" spans="1:24" ht="15.75" hidden="1">
       <c r="A284" s="13" t="s">
         <v>44</v>
       </c>
@@ -21731,7 +21731,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="15.75">
+    <row r="285" spans="1:24" ht="15.75" hidden="1">
       <c r="A285" s="13" t="s">
         <v>44</v>
       </c>
@@ -21805,7 +21805,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="15.75">
+    <row r="286" spans="1:24" ht="15.75" hidden="1">
       <c r="A286" s="13" t="s">
         <v>44</v>
       </c>
@@ -21879,7 +21879,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="15.75">
+    <row r="287" spans="1:24" ht="15.75" hidden="1">
       <c r="A287" s="13" t="s">
         <v>44</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="15.75">
+    <row r="288" spans="1:24" ht="15.75" hidden="1">
       <c r="A288" s="13" t="s">
         <v>44</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="15.75">
+    <row r="289" spans="1:24" ht="15.75" hidden="1">
       <c r="A289" s="13" t="s">
         <v>44</v>
       </c>
@@ -22101,7 +22101,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="15.75">
+    <row r="290" spans="1:24" ht="15.75" hidden="1">
       <c r="A290" s="13" t="s">
         <v>44</v>
       </c>
@@ -22175,7 +22175,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="15.75">
+    <row r="291" spans="1:24" ht="15.75" hidden="1">
       <c r="A291" s="13" t="s">
         <v>44</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>430.45563549160698</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="15.75">
+    <row r="292" spans="1:24" ht="15.75" hidden="1">
       <c r="A292" s="13" t="s">
         <v>44</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>392.18625099920098</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="15.75">
+    <row r="293" spans="1:24" ht="15.75" hidden="1">
       <c r="A293" s="13" t="s">
         <v>44</v>
       </c>
@@ -22397,7 +22397,7 @@
         <v>453.78402632366101</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="15.75">
+    <row r="294" spans="1:24" ht="15.75" hidden="1">
       <c r="A294" s="13" t="s">
         <v>44</v>
       </c>
@@ -22471,7 +22471,7 @@
         <v>469.87230646448501</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="15.75">
+    <row r="295" spans="1:24" ht="15.75" hidden="1">
       <c r="A295" s="13" t="s">
         <v>44</v>
       </c>
@@ -22545,7 +22545,7 @@
         <v>513.513513513514</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="15.75">
+    <row r="296" spans="1:24" ht="15.75" hidden="1">
       <c r="A296" s="13" t="s">
         <v>44</v>
       </c>
@@ -22619,7 +22619,7 @@
         <v>510.62344139650901</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="15.75">
+    <row r="297" spans="1:24" ht="15.75" hidden="1">
       <c r="A297" s="13" t="s">
         <v>44</v>
       </c>
@@ -22693,7 +22693,7 @@
         <v>505.04344352342002</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="15.75">
+    <row r="298" spans="1:24" ht="15.75" hidden="1">
       <c r="A298" s="13" t="s">
         <v>44</v>
       </c>
@@ -22767,7 +22767,7 @@
         <v>404.20653907496001</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="15.75">
+    <row r="299" spans="1:24" ht="15.75" hidden="1">
       <c r="A299" s="13" t="s">
         <v>44</v>
       </c>
@@ -22841,7 +22841,7 @@
         <v>331.63621842867099</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="15.75">
+    <row r="300" spans="1:24" ht="15.75" hidden="1">
       <c r="A300" s="13" t="s">
         <v>44</v>
       </c>
@@ -22915,7 +22915,7 @@
         <v>394.24230307876797</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="15.75">
+    <row r="301" spans="1:24" ht="15.75" hidden="1">
       <c r="A301" s="13" t="s">
         <v>44</v>
       </c>
@@ -22989,7 +22989,7 @@
         <v>324.15993618506297</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="15.75">
+    <row r="302" spans="1:24" ht="15.75" hidden="1">
       <c r="A302" s="13" t="s">
         <v>44</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>365.62468790572302</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="15.75">
+    <row r="303" spans="1:24" ht="15.75" hidden="1">
       <c r="A303" s="13" t="s">
         <v>44</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>537.43128435782103</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="15.75">
+    <row r="304" spans="1:24" ht="15.75" hidden="1">
       <c r="A304" s="13" t="s">
         <v>44</v>
       </c>
@@ -23211,7 +23211,7 @@
         <v>448.43765598482599</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="15.75">
+    <row r="305" spans="1:24" ht="15.75" hidden="1">
       <c r="A305" s="13" t="s">
         <v>44</v>
       </c>
@@ -23285,7 +23285,7 @@
         <v>489.97306195749798</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="15.75">
+    <row r="306" spans="1:24" ht="15.75" hidden="1">
       <c r="A306" s="13" t="s">
         <v>44</v>
       </c>
@@ -23359,7 +23359,7 @@
         <v>420.69516580103902</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="15.75">
+    <row r="307" spans="1:24" ht="15.75" hidden="1">
       <c r="A307" s="13" t="s">
         <v>44</v>
       </c>
@@ -23433,7 +23433,7 @@
         <v>664.43623289723303</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="15.75">
+    <row r="308" spans="1:24" ht="15.75" hidden="1">
       <c r="A308" s="13" t="s">
         <v>44</v>
       </c>
@@ -23507,7 +23507,7 @@
         <v>441.29675810473799</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="15.75">
+    <row r="309" spans="1:24" ht="15.75" hidden="1">
       <c r="A309" s="13" t="s">
         <v>44</v>
       </c>
@@ -23581,7 +23581,7 @@
         <v>466.141418170939</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="15.75">
+    <row r="310" spans="1:24" ht="15.75" hidden="1">
       <c r="A310" s="13" t="s">
         <v>44</v>
       </c>
@@ -23655,7 +23655,7 @@
         <v>380.11579157516502</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="15.75">
+    <row r="311" spans="1:24" ht="15.75" hidden="1">
       <c r="A311" s="13" t="s">
         <v>44</v>
       </c>
@@ -23729,7 +23729,7 @@
         <v>357.57031717534397</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="15.75">
+    <row r="312" spans="1:24" ht="15.75" hidden="1">
       <c r="A312" s="13" t="s">
         <v>44</v>
       </c>
@@ -23803,7 +23803,7 @@
         <v>441.95092758827099</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="15.75">
+    <row r="313" spans="1:24" ht="15.75" hidden="1">
       <c r="A313" s="13" t="s">
         <v>44</v>
       </c>
@@ -23877,7 +23877,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="15.75">
+    <row r="314" spans="1:24" ht="15.75" hidden="1">
       <c r="A314" s="13" t="s">
         <v>44</v>
       </c>
@@ -23951,7 +23951,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="15.75">
+    <row r="315" spans="1:24" ht="15.75" hidden="1">
       <c r="A315" s="13" t="s">
         <v>44</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="15.75">
+    <row r="316" spans="1:24" ht="15.75" hidden="1">
       <c r="A316" s="13" t="s">
         <v>44</v>
       </c>
@@ -24099,7 +24099,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="15.75">
+    <row r="317" spans="1:24" ht="15.75" hidden="1">
       <c r="A317" s="13" t="s">
         <v>44</v>
       </c>
@@ -24173,7 +24173,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="15.75">
+    <row r="318" spans="1:24" ht="15.75" hidden="1">
       <c r="A318" s="13" t="s">
         <v>44</v>
       </c>
@@ -24247,7 +24247,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="15.75">
+    <row r="319" spans="1:24" ht="15.75" hidden="1">
       <c r="A319" s="13" t="s">
         <v>44</v>
       </c>
@@ -24321,7 +24321,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="15.75">
+    <row r="320" spans="1:24" ht="15.75" hidden="1">
       <c r="A320" s="13" t="s">
         <v>44</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="15.75">
+    <row r="321" spans="1:24" ht="15.75" hidden="1">
       <c r="A321" s="13" t="s">
         <v>44</v>
       </c>
@@ -24469,7 +24469,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="15.75">
+    <row r="322" spans="1:24" ht="15.75" hidden="1">
       <c r="A322" s="13" t="s">
         <v>44</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="15.75">
+    <row r="323" spans="1:24" ht="15.75" hidden="1">
       <c r="A323" s="13" t="s">
         <v>44</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="15.75">
+    <row r="335" spans="1:24" ht="15.75" hidden="1">
       <c r="A335" s="13" t="s">
         <v>44</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>430.45563549160698</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="15.75">
+    <row r="336" spans="1:24" ht="15.75" hidden="1">
       <c r="A336" s="13" t="s">
         <v>44</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>365.68353925866899</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="15.75">
+    <row r="337" spans="1:24" ht="15.75" hidden="1">
       <c r="A337" s="13" t="s">
         <v>44</v>
       </c>
@@ -25653,7 +25653,7 @@
         <v>222.10087370929301</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="15.75">
+    <row r="338" spans="1:24" ht="15.75" hidden="1">
       <c r="A338" s="13" t="s">
         <v>44</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>486.358244365362</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="15.75">
+    <row r="339" spans="1:24" ht="15.75" hidden="1">
       <c r="A339" s="13" t="s">
         <v>44</v>
       </c>
@@ -25801,7 +25801,7 @@
         <v>270.76494578732701</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="15.75">
+    <row r="340" spans="1:24" ht="15.75" hidden="1">
       <c r="A340" s="13" t="s">
         <v>44</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>388.12831018287199</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="15.75">
+    <row r="341" spans="1:24" ht="15.75" hidden="1">
       <c r="A341" s="13" t="s">
         <v>44</v>
       </c>
@@ -25949,7 +25949,7 @@
         <v>347.28574269238402</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="15.75">
+    <row r="342" spans="1:24" ht="15.75" hidden="1">
       <c r="A342" s="13" t="s">
         <v>44</v>
       </c>
@@ -26023,7 +26023,7 @@
         <v>533.95853899308997</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="15.75">
+    <row r="343" spans="1:24" ht="15.75" hidden="1">
       <c r="A343" s="13" t="s">
         <v>44</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>502.93853969518898</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="15.75">
+    <row r="344" spans="1:24" ht="15.75" hidden="1">
       <c r="A344" s="13" t="s">
         <v>44</v>
       </c>
@@ -26171,7 +26171,7 @@
         <v>346.66931400774303</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="15.75">
+    <row r="345" spans="1:24" ht="15.75" hidden="1">
       <c r="A345" s="13" t="s">
         <v>44</v>
       </c>
@@ -27059,7 +27059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="15.75">
+    <row r="357" spans="1:24" ht="15.75" hidden="1">
       <c r="A357" s="13" t="s">
         <v>44</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>350.26444466620097</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="15.75">
+    <row r="358" spans="1:24" ht="15.75" hidden="1">
       <c r="A358" s="13" t="s">
         <v>44</v>
       </c>
@@ -27207,7 +27207,7 @@
         <v>217.90271132376401</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="15.75">
+    <row r="359" spans="1:24" ht="15.75" hidden="1">
       <c r="A359" s="13" t="s">
         <v>44</v>
       </c>
@@ -27281,7 +27281,7 @@
         <v>360.869999002295</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="15.75">
+    <row r="360" spans="1:24" ht="15.75" hidden="1">
       <c r="A360" s="13" t="s">
         <v>44</v>
       </c>
@@ -27355,7 +27355,7 @@
         <v>358.02592223329998</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="15.75">
+    <row r="361" spans="1:24" ht="15.75" hidden="1">
       <c r="A361" s="13" t="s">
         <v>44</v>
       </c>
@@ -27429,7 +27429,7 @@
         <v>249.77502249775</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="15.75">
+    <row r="362" spans="1:24" ht="15.75" hidden="1">
       <c r="A362" s="13" t="s">
         <v>44</v>
       </c>
@@ -27503,7 +27503,7 @@
         <v>319.20174741858602</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="15.75">
+    <row r="363" spans="1:24" ht="15.75" hidden="1">
       <c r="A363" s="13" t="s">
         <v>44</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>652.21733919296798</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="15.75">
+    <row r="364" spans="1:24" ht="15.75" hidden="1">
       <c r="A364" s="13" t="s">
         <v>44</v>
       </c>
@@ -27651,7 +27651,7 @@
         <v>383.40829585207399</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="15.75">
+    <row r="365" spans="1:24" ht="15.75" hidden="1">
       <c r="A365" s="13" t="s">
         <v>44</v>
       </c>
@@ -27725,7 +27725,7 @@
         <v>496.03174603174602</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="15.75">
+    <row r="366" spans="1:24" ht="15.75" hidden="1">
       <c r="A366" s="13" t="s">
         <v>44</v>
       </c>
@@ -27799,7 +27799,7 @@
         <v>859.03434544549498</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="15.75">
+    <row r="367" spans="1:24" ht="15.75" hidden="1">
       <c r="A367" s="13" t="s">
         <v>44</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>81.691256560055507</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="15.75">
+    <row r="379" spans="1:24" ht="15.75" hidden="1">
       <c r="A379" s="13" t="s">
         <v>44</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="15.75">
+    <row r="380" spans="1:24" ht="15.75" hidden="1">
       <c r="A380" s="13" t="s">
         <v>44</v>
       </c>
@@ -28835,7 +28835,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="15.75">
+    <row r="381" spans="1:24" ht="15.75" hidden="1">
       <c r="A381" s="13" t="s">
         <v>44</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="15.75">
+    <row r="382" spans="1:24" ht="15.75" hidden="1">
       <c r="A382" s="13" t="s">
         <v>44</v>
       </c>
@@ -28983,7 +28983,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="15.75">
+    <row r="383" spans="1:24" ht="15.75" hidden="1">
       <c r="A383" s="13" t="s">
         <v>44</v>
       </c>
@@ -29057,7 +29057,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="15.75">
+    <row r="384" spans="1:24" ht="15.75" hidden="1">
       <c r="A384" s="13" t="s">
         <v>44</v>
       </c>
@@ -29131,7 +29131,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="15.75">
+    <row r="385" spans="1:24" ht="15.75" hidden="1">
       <c r="A385" s="13" t="s">
         <v>44</v>
       </c>
@@ -29205,7 +29205,7 @@
         <v>7.28</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="15.75">
+    <row r="386" spans="1:24" ht="15.75" hidden="1">
       <c r="A386" s="13" t="s">
         <v>44</v>
       </c>
@@ -29279,7 +29279,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="15.75">
+    <row r="387" spans="1:24" ht="15.75" hidden="1">
       <c r="A387" s="13" t="s">
         <v>44</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="15.75">
+    <row r="388" spans="1:24" ht="15.75" hidden="1">
       <c r="A388" s="13" t="s">
         <v>44</v>
       </c>
@@ -29427,7 +29427,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="15.75">
+    <row r="389" spans="1:24" ht="15.75" hidden="1">
       <c r="A389" s="13" t="s">
         <v>44</v>
       </c>
@@ -30315,7 +30315,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="15.75">
+    <row r="401" spans="1:24" ht="15.75" hidden="1">
       <c r="A401" s="13" t="s">
         <v>44</v>
       </c>
@@ -30389,7 +30389,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="15.75">
+    <row r="402" spans="1:24" ht="15.75" hidden="1">
       <c r="A402" s="13" t="s">
         <v>44</v>
       </c>
@@ -30463,7 +30463,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="15.75">
+    <row r="403" spans="1:24" ht="15.75" hidden="1">
       <c r="A403" s="13" t="s">
         <v>44</v>
       </c>
@@ -30537,7 +30537,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="15.75">
+    <row r="404" spans="1:24" ht="15.75" hidden="1">
       <c r="A404" s="13" t="s">
         <v>44</v>
       </c>
@@ -30609,7 +30609,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="15.75">
+    <row r="405" spans="1:24" ht="15.75" hidden="1">
       <c r="A405" s="13" t="s">
         <v>44</v>
       </c>
@@ -30681,7 +30681,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="15.75">
+    <row r="406" spans="1:24" ht="15.75" hidden="1">
       <c r="A406" s="13" t="s">
         <v>44</v>
       </c>
@@ -30755,7 +30755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="15.75">
+    <row r="407" spans="1:24" ht="15.75" hidden="1">
       <c r="A407" s="13" t="s">
         <v>44</v>
       </c>
@@ -30827,7 +30827,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="15.75">
+    <row r="408" spans="1:24" ht="15.75" hidden="1">
       <c r="A408" s="13" t="s">
         <v>44</v>
       </c>
@@ -30901,7 +30901,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="15.75">
+    <row r="409" spans="1:24" ht="15.75" hidden="1">
       <c r="A409" s="13" t="s">
         <v>44</v>
       </c>
@@ -30975,7 +30975,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="15.75">
+    <row r="410" spans="1:24" ht="15.75" hidden="1">
       <c r="A410" s="13" t="s">
         <v>44</v>
       </c>
@@ -31049,7 +31049,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="15.75">
+    <row r="411" spans="1:24" ht="15.75" hidden="1">
       <c r="A411" s="13" t="s">
         <v>44</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="15.75">
+    <row r="412" spans="1:24" ht="15.75" hidden="1">
       <c r="A412" s="13" t="s">
         <v>44</v>
       </c>
@@ -32077,7 +32077,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="15.75">
+    <row r="425" spans="1:24" ht="15.75" hidden="1">
       <c r="A425" s="13" t="s">
         <v>44</v>
       </c>
@@ -32151,7 +32151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="15.75">
+    <row r="426" spans="1:24" ht="15.75" hidden="1">
       <c r="A426" s="13" t="s">
         <v>44</v>
       </c>
@@ -32225,7 +32225,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="15.75">
+    <row r="427" spans="1:24" ht="15.75" hidden="1">
       <c r="A427" s="13" t="s">
         <v>44</v>
       </c>
@@ -32299,7 +32299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="15.75">
+    <row r="428" spans="1:24" ht="15.75" hidden="1">
       <c r="A428" s="13" t="s">
         <v>44</v>
       </c>
@@ -32373,7 +32373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="15.75">
+    <row r="429" spans="1:24" ht="15.75" hidden="1">
       <c r="A429" s="13" t="s">
         <v>44</v>
       </c>
@@ -32447,7 +32447,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="15.75">
+    <row r="430" spans="1:24" ht="15.75" hidden="1">
       <c r="A430" s="13" t="s">
         <v>44</v>
       </c>
@@ -32521,7 +32521,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="15.75">
+    <row r="431" spans="1:24" ht="15.75" hidden="1">
       <c r="A431" s="13" t="s">
         <v>44</v>
       </c>
@@ -32595,7 +32595,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="15.75">
+    <row r="432" spans="1:24" ht="15.75" hidden="1">
       <c r="A432" s="13" t="s">
         <v>44</v>
       </c>
@@ -32669,7 +32669,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="15.75">
+    <row r="433" spans="1:24" ht="15.75" hidden="1">
       <c r="A433" s="13" t="s">
         <v>44</v>
       </c>
@@ -32743,7 +32743,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="15.75">
+    <row r="434" spans="1:24" ht="15.75" hidden="1">
       <c r="A434" s="13" t="s">
         <v>44</v>
       </c>
@@ -32817,7 +32817,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="15.75">
+    <row r="435" spans="1:24" ht="15.75" hidden="1">
       <c r="A435" s="13" t="s">
         <v>44</v>
       </c>
@@ -32891,7 +32891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="15.75">
+    <row r="436" spans="1:24" ht="15.75" hidden="1">
       <c r="A436" s="13" t="s">
         <v>44</v>
       </c>
@@ -32965,7 +32965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="15.75">
+    <row r="437" spans="1:24" ht="15.75" hidden="1">
       <c r="A437" s="13" t="s">
         <v>44</v>
       </c>
@@ -33039,7 +33039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="15.75">
+    <row r="438" spans="1:24" ht="15.75" hidden="1">
       <c r="A438" s="13" t="s">
         <v>44</v>
       </c>
@@ -33113,7 +33113,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="15.75">
+    <row r="439" spans="1:24" ht="15.75" hidden="1">
       <c r="A439" s="13" t="s">
         <v>44</v>
       </c>
@@ -33187,7 +33187,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="15.75">
+    <row r="440" spans="1:24" ht="15.75" hidden="1">
       <c r="A440" s="13" t="s">
         <v>44</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="15.75">
+    <row r="441" spans="1:24" ht="15.75" hidden="1">
       <c r="A441" s="13" t="s">
         <v>44</v>
       </c>
@@ -33335,7 +33335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="15.75">
+    <row r="442" spans="1:24" ht="15.75" hidden="1">
       <c r="A442" s="13" t="s">
         <v>44</v>
       </c>
@@ -33409,7 +33409,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="15.75">
+    <row r="443" spans="1:24" ht="15.75" hidden="1">
       <c r="A443" s="10" t="s">
         <v>44</v>
       </c>
@@ -33483,7 +33483,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="15.75">
+    <row r="444" spans="1:24" ht="15.75" hidden="1">
       <c r="A444" s="13" t="s">
         <v>44</v>
       </c>
@@ -33557,7 +33557,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="15.75">
+    <row r="445" spans="1:24" ht="15.75" hidden="1">
       <c r="A445" s="13" t="s">
         <v>44</v>
       </c>
@@ -33631,7 +33631,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="15.75">
+    <row r="446" spans="1:24" ht="15.75" hidden="1">
       <c r="A446" s="13" t="s">
         <v>44</v>
       </c>
@@ -33705,7 +33705,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="15.75">
+    <row r="447" spans="1:24" ht="15.75" hidden="1">
       <c r="A447" s="13" t="s">
         <v>44</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="15.75">
+    <row r="448" spans="1:24" ht="15.75" hidden="1">
       <c r="A448" s="13" t="s">
         <v>44</v>
       </c>
@@ -33853,7 +33853,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="15.75">
+    <row r="449" spans="1:24" ht="15.75" hidden="1">
       <c r="A449" s="13" t="s">
         <v>44</v>
       </c>
@@ -33927,7 +33927,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="15.75">
+    <row r="450" spans="1:24" ht="15.75" hidden="1">
       <c r="A450" s="13" t="s">
         <v>44</v>
       </c>
@@ -34001,7 +34001,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="15.75">
+    <row r="451" spans="1:24" ht="15.75" hidden="1">
       <c r="A451" s="13" t="s">
         <v>44</v>
       </c>
@@ -34075,7 +34075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="15.75">
+    <row r="452" spans="1:24" ht="15.75" hidden="1">
       <c r="A452" s="13" t="s">
         <v>44</v>
       </c>
@@ -34149,7 +34149,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="15.75">
+    <row r="453" spans="1:24" ht="15.75" hidden="1">
       <c r="A453" s="13" t="s">
         <v>44</v>
       </c>
@@ -34223,7 +34223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="15.75">
+    <row r="454" spans="1:24" ht="15.75" hidden="1">
       <c r="A454" s="13" t="s">
         <v>44</v>
       </c>
@@ -34297,7 +34297,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="15.75">
+    <row r="455" spans="1:24" ht="15.75" hidden="1">
       <c r="A455" s="10" t="s">
         <v>44</v>
       </c>
@@ -34371,7 +34371,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="15.75">
+    <row r="456" spans="1:24" ht="15.75" hidden="1">
       <c r="A456" s="13" t="s">
         <v>44</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="15.75">
+    <row r="457" spans="1:24" ht="15.75" hidden="1">
       <c r="A457" s="13" t="s">
         <v>44</v>
       </c>
@@ -34519,7 +34519,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="15.75">
+    <row r="458" spans="1:24" ht="15.75" hidden="1">
       <c r="A458" s="13" t="s">
         <v>44</v>
       </c>
@@ -34593,7 +34593,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="15.75">
+    <row r="459" spans="1:24" ht="15.75" hidden="1">
       <c r="A459" s="13" t="s">
         <v>44</v>
       </c>
@@ -34667,7 +34667,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="15.75">
+    <row r="460" spans="1:24" ht="15.75" hidden="1">
       <c r="A460" s="13" t="s">
         <v>44</v>
       </c>
@@ -34741,7 +34741,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="15.75">
+    <row r="461" spans="1:24" ht="15.75" hidden="1">
       <c r="A461" s="13" t="s">
         <v>44</v>
       </c>
@@ -34815,7 +34815,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="15.75">
+    <row r="462" spans="1:24" ht="15.75" hidden="1">
       <c r="A462" s="13" t="s">
         <v>44</v>
       </c>
@@ -34889,7 +34889,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="15.75">
+    <row r="463" spans="1:24" ht="15.75" hidden="1">
       <c r="A463" s="13" t="s">
         <v>44</v>
       </c>
@@ -34963,7 +34963,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="15.75">
+    <row r="464" spans="1:24" ht="15.75" hidden="1">
       <c r="A464" s="13" t="s">
         <v>44</v>
       </c>
@@ -35037,7 +35037,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="15.75">
+    <row r="465" spans="1:24" ht="15.75" hidden="1">
       <c r="A465" s="13" t="s">
         <v>44</v>
       </c>
@@ -35111,7 +35111,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="15.75">
+    <row r="466" spans="1:24" ht="15.75" hidden="1">
       <c r="A466" s="13" t="s">
         <v>44</v>
       </c>
@@ -35185,7 +35185,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="15.75">
+    <row r="467" spans="1:24" ht="15.75" hidden="1">
       <c r="A467" s="13" t="s">
         <v>44</v>
       </c>
@@ -35259,7 +35259,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="15.75">
+    <row r="468" spans="1:24" ht="15.75" hidden="1">
       <c r="A468" s="13" t="s">
         <v>44</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="15.75">
+    <row r="469" spans="1:24" ht="15.75" hidden="1">
       <c r="A469" s="13" t="s">
         <v>44</v>
       </c>
@@ -35407,7 +35407,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="15.75">
+    <row r="470" spans="1:24" ht="15.75" hidden="1">
       <c r="A470" s="13" t="s">
         <v>44</v>
       </c>
@@ -35481,7 +35481,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="15.75">
+    <row r="471" spans="1:24" ht="15.75" hidden="1">
       <c r="A471" s="13" t="s">
         <v>44</v>
       </c>
@@ -36443,7 +36443,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="15.75">
+    <row r="484" spans="1:24" ht="15.75" hidden="1">
       <c r="A484" s="13" t="s">
         <v>61</v>
       </c>
@@ -36517,7 +36517,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="15.75">
+    <row r="485" spans="1:24" ht="15.75" hidden="1">
       <c r="A485" s="13" t="s">
         <v>61</v>
       </c>
@@ -36591,7 +36591,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="15.75">
+    <row r="486" spans="1:24" ht="15.75" hidden="1">
       <c r="A486" s="13" t="s">
         <v>61</v>
       </c>
@@ -36665,7 +36665,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="15.75">
+    <row r="487" spans="1:24" ht="15.75" hidden="1">
       <c r="A487" s="13" t="s">
         <v>61</v>
       </c>
@@ -36739,7 +36739,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="15.75">
+    <row r="488" spans="1:24" ht="15.75" hidden="1">
       <c r="A488" s="13" t="s">
         <v>61</v>
       </c>
@@ -36813,7 +36813,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="15.75">
+    <row r="489" spans="1:24" ht="15.75" hidden="1">
       <c r="A489" s="13" t="s">
         <v>61</v>
       </c>
@@ -36887,7 +36887,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="15.75">
+    <row r="490" spans="1:24" ht="15.75" hidden="1">
       <c r="A490" s="13" t="s">
         <v>61</v>
       </c>
@@ -36961,7 +36961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="15.75">
+    <row r="491" spans="1:24" ht="15.75" hidden="1">
       <c r="A491" s="13" t="s">
         <v>61</v>
       </c>
@@ -37035,7 +37035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="15.75">
+    <row r="492" spans="1:24" ht="15.75" hidden="1">
       <c r="A492" s="13" t="s">
         <v>61</v>
       </c>
@@ -37109,7 +37109,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="15.75">
+    <row r="493" spans="1:24" ht="15.75" hidden="1">
       <c r="A493" s="13" t="s">
         <v>61</v>
       </c>
@@ -38073,9 +38073,29 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:X505">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ARATO"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Foliar"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Fruto en Crec-1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2014-2015"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:X505">
@@ -38093,7 +38113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
